--- a/Test Data Driven/AI-Generated/Common/scheduleTestRunForTeamProject.xlsx
+++ b/Test Data Driven/AI-Generated/Common/scheduleTestRunForTeamProject.xlsx
@@ -438,125 +438,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="49" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>link_projectLinks_internalRoleLinkName</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>link_projectLinks_internalRoleLinkName_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>link_projectLinks_trNthChild</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>link_testManagementOptions_internalRoleLinkName</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>link_testManagementOptions_nthChild</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project_id_1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>team_id</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>team_id_1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>test_project_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>OJ Oracle JDE There is no</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Script Repositories</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1566250</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1566250</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1546818</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1546818</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1580856</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
